--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -142,8 +142,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,129 +186,129 @@
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -328,174 +332,174 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="3.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>43870</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>44080</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -519,7 +523,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
